--- a/variacionK.xlsx
+++ b/variacionK.xlsx
@@ -482,16 +482,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="D3" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="E3" t="n">
-        <v>1.285714285714286</v>
+        <v>1.607142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -516,16 +516,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>762</v>
+        <v>252</v>
       </c>
       <c r="D5" t="n">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="E5" t="n">
-        <v>1.693333333333333</v>
+        <v>1.058823529411765</v>
       </c>
     </row>
   </sheetData>
